--- a/materials/QuizAnswers.xlsx
+++ b/materials/QuizAnswers.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897F3C6A-D1A7-4CFB-B8E6-856CC386617E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E94FA-4D23-46B2-A14D-D9764D1CC519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14780" windowHeight="6650" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Functions" sheetId="1" r:id="rId1"/>
-    <sheet name="Quiz" sheetId="2" r:id="rId2"/>
+    <sheet name="Quiz" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="167">
   <si>
     <t>Week</t>
   </si>
@@ -90,100 +89,448 @@
     <t>x=2 and x&lt;-2 mean the same thing in R.</t>
   </si>
   <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>rm()</t>
-  </si>
-  <si>
-    <t>removes an object from memory</t>
-  </si>
-  <si>
     <t>Object names in R must begin with a letter (not a number).</t>
   </si>
   <si>
     <t>R is case sensitive.</t>
   </si>
   <si>
-    <t>sqrt()</t>
-  </si>
-  <si>
-    <t>log()</t>
-  </si>
-  <si>
-    <t>exp()</t>
-  </si>
-  <si>
-    <t>log2()</t>
-  </si>
-  <si>
-    <t>abs()</t>
-  </si>
-  <si>
     <t>Putting a number sign (#) at the beginning of a line turns it into a comment in R and R will ignore that line.</t>
   </si>
   <si>
-    <t>c()</t>
-  </si>
-  <si>
-    <t>concatenate</t>
-  </si>
-  <si>
-    <t>seq()</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t>rep()</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>rep(1, times=5)</t>
-  </si>
-  <si>
     <t>You can import data sets into Rstudio by using the File - Import Dataset menu.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JYVWufSQ4OI</t>
   </si>
   <si>
-    <t>library()</t>
-  </si>
-  <si>
-    <t>install.packages()</t>
-  </si>
-  <si>
     <t>R indicates missing values by displaying the letters "NA".</t>
   </si>
   <si>
-    <t>view()</t>
-  </si>
-  <si>
-    <t>help()</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>read.table()</t>
-  </si>
-  <si>
-    <t>file.choose()</t>
+    <t>option 1</t>
+  </si>
+  <si>
+    <t>option 2</t>
+  </si>
+  <si>
+    <t>option 3</t>
+  </si>
+  <si>
+    <t>option 4</t>
+  </si>
+  <si>
+    <t>option 5</t>
+  </si>
+  <si>
+    <t>option 6</t>
+  </si>
+  <si>
+    <t>option 7</t>
+  </si>
+  <si>
+    <t>option 8</t>
+  </si>
+  <si>
+    <t>option 9</t>
+  </si>
+  <si>
+    <t>option 10</t>
+  </si>
+  <si>
+    <t>Statistics can be used to lie.</t>
+  </si>
+  <si>
+    <t>Statistics can be used to help find the truth.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zouPoc49xbk&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr</t>
+  </si>
+  <si>
+    <t>Statistics are used in many places in real life.</t>
+  </si>
+  <si>
+    <t>Statistics are only used in obscure academic journals.</t>
+  </si>
+  <si>
+    <t>Understanding how statistics work helps us ask good questions about studies and research.</t>
+  </si>
+  <si>
+    <t>It's not important to have a good understand of how statistics work.</t>
+  </si>
+  <si>
+    <t>Numeracy is a way to predict the future.</t>
+  </si>
+  <si>
+    <t>It's going with your gut.</t>
+  </si>
+  <si>
+    <t>R is not case sensitive.</t>
+  </si>
+  <si>
+    <t>What symbol is used to make a comment in R?</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Reliability means replicability.</t>
+  </si>
+  <si>
+    <t>Reliability means measuring what you intend to measure.</t>
+  </si>
+  <si>
+    <t>Validity means measuring what you intend to measure.</t>
+  </si>
+  <si>
+    <t>You don't need to be accurate to have validity.</t>
+  </si>
+  <si>
+    <t>Reliability means getting consistent results.</t>
+  </si>
+  <si>
+    <t>reliability means being inconsistent.</t>
+  </si>
+  <si>
+    <t>Validity is akin to consistently hitting the bullseye on a target.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L-ofOlsuI4U</t>
+  </si>
+  <si>
+    <t>The c() function in R is for concatenating things together.</t>
+  </si>
+  <si>
+    <t>The c() function in R is for splitting things apart.</t>
+  </si>
+  <si>
+    <t>Which of the following are mathematical operators used in R? (select all that apply)</t>
+  </si>
+  <si>
+    <t>+ (plus)</t>
+  </si>
+  <si>
+    <t>- (minus)</t>
+  </si>
+  <si>
+    <t>* (mulitply)</t>
+  </si>
+  <si>
+    <t>/ (divide)</t>
+  </si>
+  <si>
+    <t>x (multiply)</t>
+  </si>
+  <si>
+    <t>^ or ** (exponent)</t>
+  </si>
+  <si>
+    <t>add()</t>
+  </si>
+  <si>
+    <t>subtract()</t>
+  </si>
+  <si>
+    <t>divide()</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>power()</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2TcPAZOyV0U</t>
+  </si>
+  <si>
+    <t>Which of the following are logical operators used in R? (select all that apply)</t>
+  </si>
+  <si>
+    <t>&lt; and &gt;</t>
+  </si>
+  <si>
+    <t>&lt;= and &gt;=</t>
+  </si>
+  <si>
+    <t>== (exactly equal to)</t>
+  </si>
+  <si>
+    <t>!= (not equal to)</t>
+  </si>
+  <si>
+    <t>x|y (x OR y)</t>
+  </si>
+  <si>
+    <t>x&amp;y (x AND y)</t>
+  </si>
+  <si>
+    <t>@ (at)</t>
+  </si>
+  <si>
+    <t>^ (only if)</t>
+  </si>
+  <si>
+    <t># (hash tag)</t>
+  </si>
+  <si>
+    <t>~ (approximately)</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>How does R indicate missing values by default?</t>
+  </si>
+  <si>
+    <t>What is a data frame in R?</t>
+  </si>
+  <si>
+    <t>It is a structure for storing data sets.</t>
+  </si>
+  <si>
+    <t>It is used for displaying graphical data.</t>
+  </si>
+  <si>
+    <t>There is not such thing in R.</t>
+  </si>
+  <si>
+    <t>It is a convenient way to group study data used for an analysis.</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>What are characteristics of a data fram in R?</t>
+  </si>
+  <si>
+    <t>Rows usually contain observations.</t>
+  </si>
+  <si>
+    <t>Columns usually contain variables.</t>
+  </si>
+  <si>
+    <t>Data frames can contain variables of different data types. (e.g. numbers or strings)</t>
+  </si>
+  <si>
+    <t>Only one variable can be stored in a data frame.</t>
+  </si>
+  <si>
+    <t>Only data for one person can be stored in a data frame.</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Variables in a data frame can't be used in a statistical analysis.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9f2g7RN5N0I</t>
+  </si>
+  <si>
+    <t>A variable is a proberty that can take on many values.</t>
+  </si>
+  <si>
+    <t>A variable can only have a single value.</t>
+  </si>
+  <si>
+    <t>An independent variable is the variable that is being manipulated.</t>
+  </si>
+  <si>
+    <t>An independent variable is the one that is changing and is being measured.</t>
+  </si>
+  <si>
+    <t>A dependent variable is the one that is changing and is being measured.</t>
+  </si>
+  <si>
+    <t>A dependent variable is the one that is manipulated.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l5wIPzv-_GM</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of a weight loss medication participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their weights are measured after 6 months. What type of variable is group?</t>
+  </si>
+  <si>
+    <t>independent variable</t>
+  </si>
+  <si>
+    <t>dependent variable</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of a weight loss medication participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their weights are measured after 6 months. What type of variable is weight?</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of an ADHD medication participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their time able to focus on a topic are measured after 6 months. What type of variable is group?</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of an ADHD medication participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their time able to focus on a topic are measured after 6 months. What type of variable is time?</t>
+  </si>
+  <si>
+    <t>In a study testing the differences in how much men and women love music, participants are divided into groups by sex (male or female) and are administered a questionnaire which measures love of music. What type of variable is sex?</t>
+  </si>
+  <si>
+    <t>In a study testing the differences in how much men and women love music, participants are divided into groups by sex (male or female) and are administered a questionnaire which measures love of music. What type of variable is score on the questionnaire?</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of a medication to increase endurance during exercise participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their time able to exercise are measured after 6 months. What type of variable is group?</t>
+  </si>
+  <si>
+    <t>In a study testing the effectiveness of a medication to increase endurance during exercise participants are divided into a control group (which receives a placebo) and a medication group (which receives the medication) and their time able to exercise are measured after 6 months. What type of variable is time?</t>
+  </si>
+  <si>
+    <t>In a study examining how quickly and accuratly nurses chart on an EMR page when different layouts are used, nurses are divided into three groups. One group charts on the regular EMR page. One group charts on modified layout #1. And one group charts on modified layout #2. After all nurses have completed their charting, the time to complete charting and the number of mistakes are measured. What type of variable is group?</t>
+  </si>
+  <si>
+    <t>In a study examining how quickly and accuratly nurses chart on an EMR page when different layouts are used, nurses are divided into three groups. One group charts on the regular EMR page. One group charts on modified layout #1. And one group charts on modified layout #2. After all nurses have completed their charting, the time to complete charting and the number of mistakes are measured. What type of variable is time?</t>
+  </si>
+  <si>
+    <t>In a study examining how quickly and accuratly nurses chart on an EMR page when different layouts are used, nurses are divided into three groups. One group charts on the regular EMR page. One group charts on modified layout #1. And one group charts on modified layout #2. After all nurses have completed their charting, the time to complete charting and the number of mistakes are measured. What type of variable is number of mistakes?</t>
+  </si>
+  <si>
+    <t>What are characteristics of nominal level of measurement?</t>
+  </si>
+  <si>
+    <t>What are characteristics of ordinal level of measurement?</t>
+  </si>
+  <si>
+    <t>What are characteristics of interval level of measurement?</t>
+  </si>
+  <si>
+    <t>What are characteristics of ratio level of measurement?</t>
+  </si>
+  <si>
+    <t>It is the lowest level of measurement.</t>
+  </si>
+  <si>
+    <t>It is the next to lowest level of measurement.</t>
+  </si>
+  <si>
+    <t>It is the next to highest level of measurement.</t>
+  </si>
+  <si>
+    <t>It is the highest level of measurement.</t>
+  </si>
+  <si>
+    <t>It divides observations into groups.</t>
+  </si>
+  <si>
+    <t>There is no inherent order.</t>
+  </si>
+  <si>
+    <t>There is a specified order</t>
+  </si>
+  <si>
+    <t>There is a known consistent distance between measurement points</t>
+  </si>
+  <si>
+    <t>There is a numerically meaningful zero point.</t>
+  </si>
+  <si>
+    <t>The zero point on the scale is not numerically meaningful.</t>
+  </si>
+  <si>
+    <t>Ratios can be formed from numbers on this scale.</t>
+  </si>
+  <si>
+    <t>Meaningful ratios can't be formed using numbers on this scale.</t>
+  </si>
+  <si>
+    <t>This is a type of categorical variable.</t>
+  </si>
+  <si>
+    <t>This is a type of continuous variable.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LPHYPXBK_ks</t>
+  </si>
+  <si>
+    <t>This level of measurement can be transformed to a lower level of measurement.</t>
+  </si>
+  <si>
+    <t>Categories are mutually exclusive.</t>
+  </si>
+  <si>
+    <t>Can be known as qualitative data.</t>
+  </si>
+  <si>
+    <t>What is true of nominal level data?</t>
+  </si>
+  <si>
+    <t>What is true of ordinal level data?</t>
+  </si>
+  <si>
+    <t>What is true of interval level data?</t>
+  </si>
+  <si>
+    <t>What is true of ratio level data?</t>
+  </si>
+  <si>
+    <t>The appropriate descriptive statistics are frequency and percent.</t>
+  </si>
+  <si>
+    <t>The appropriate descriptive statistics are mean and standard deviation.</t>
+  </si>
+  <si>
+    <t>These can be graphed using bar charts or pie charts.</t>
+  </si>
+  <si>
+    <t>The only meaningful measure of central tendency is the mode.</t>
+  </si>
+  <si>
+    <t>The distance between rankings is unknown.</t>
+  </si>
+  <si>
+    <t>All nominal level tests can be performed.</t>
+  </si>
+  <si>
+    <t>The median and the mode are meaningful measures of central tendency.</t>
+  </si>
+  <si>
+    <t>The mean, median, and mode are meaningful measures of central tendency.</t>
+  </si>
+  <si>
+    <t>Zero is arbitrary.</t>
+  </si>
+  <si>
+    <t>Addition and subtraction may be performed.</t>
+  </si>
+  <si>
+    <t>Multiplication and division are not really appropriate.</t>
+  </si>
+  <si>
+    <t>Multiplication and division may be performed.</t>
+  </si>
+  <si>
+    <t>Usually psychometric measurements.</t>
+  </si>
+  <si>
+    <t>Usually physical measurements.</t>
+  </si>
+  <si>
+    <t>When collecting data for research it is a good idea to collect it in the highest level of measurement possible.</t>
+  </si>
+  <si>
+    <t>When collecting data for research, it doesn't matter what level of measurement is used.</t>
   </si>
 </sst>
 </file>
@@ -219,8 +566,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,216 +882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B5D682-ACFE-48D8-95AA-FC9E90992844}">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F54A43F-FA7D-40F7-85DB-59E611BE8551}">
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S22">
-        <f>SUM(S5:S21)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S23">
-        <f>S22/60</f>
-        <v>4.416666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S24">
-        <f>MOD(S22,60)</f>
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F54A43F-FA7D-40F7-85DB-59E611BE8551}">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,13 +897,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -767,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="b">
+      <c r="D2" t="b">
         <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -781,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -795,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -809,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -823,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -837,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -851,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -865,13 +1039,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -879,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -893,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -907,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -921,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -935,13 +1118,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -949,17 +1132,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15">
-        <f>62+49</f>
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -967,13 +1146,1011 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>-99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" t="s">
+        <v>161</v>
+      </c>
+      <c r="J62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
